--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboSourceProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboSourceProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC537FE-2F35-46F6-9DCE-01EDC02F36CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316755F4-622A-4C65-91F4-676F943AA730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>NacuboCat</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>link_nacuboSourceProfile_wait</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67FE2C5-0520-49C6-94B1-F01BCA1A7D63}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -741,7 +741,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E840CE84-E5D9-4CFB-918D-9A37B53B878D}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -848,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -872,11 +872,11 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
